--- a/JSIC_rev13_EN.xlsx
+++ b/JSIC_rev13_EN.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KensukeSuzuki\Box\2021\03_Research\03_Project\01_ForeignLabor\06_GovDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A56AFA0-F217-4D9D-8314-F1399A889349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6280E96C-7892-4D9B-BF2A-D782A98883BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{538042FF-BB6B-4A26-9FB2-75372DA584DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="JISC_Rev13" sheetId="2" r:id="rId1"/>
-    <sheet name="VarName" sheetId="3" r:id="rId2"/>
+    <sheet name="VarName" sheetId="3" r:id="rId1"/>
+    <sheet name="JISC_Rev13" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JISC_Rev13!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">JISC_Rev13!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -13663,19 +13663,6 @@
   </si>
   <si>
     <t>Contact info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0：セクション、1：大分類、2：中分類、3：小分類</t>
-    <rPh sb="10" eb="13">
-      <t>ダイブンルイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>チュウブンルイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ショウブンルイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -13730,13 +13717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中分類まで</t>
-    <rPh sb="0" eb="3">
-      <t>チュウブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>和文・産業名</t>
     <rPh sb="0" eb="2">
       <t>ワブン</t>
@@ -13746,6 +13726,32 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：大分類、1：中分類、2：小分類、3：細分類</t>
+    <rPh sb="2" eb="5">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小分類まで</t>
+    <rPh sb="0" eb="3">
+      <t>ショウブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -14140,11 +14146,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC0A3F-A6BA-4972-87F3-10B541B76597}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB95842-AEB3-4548-80BA-5D14BCE2F03E}">
   <dimension ref="A1:E2026"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="C652" sqref="C652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -44474,103 +44579,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC0A3F-A6BA-4972-87F3-10B541B76597}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>4323</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4322</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4330</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>1920</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4331</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>3085</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4324</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>4327</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>